--- a/doc/Results/AlexNet_CIFAR10_PS3.xlsx
+++ b/doc/Results/AlexNet_CIFAR10_PS3.xlsx
@@ -17,11 +17,7 @@
     <sheet name="Uniform Patch" sheetId="4" r:id="rId3"/>
     <sheet name="Uniform Filters" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5012,10 +5008,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summery!$A$12:$A$18</c:f>
+              <c:f>Summery!$A$12:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5036,16 +5032,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summery!$C$12:$C$18</c:f>
+              <c:f>Summery!$C$12:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5066,6 +5065,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.341020386904761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.344863343253968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5112,10 +5114,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summery!$A$12:$A$18</c:f>
+              <c:f>Summery!$A$12:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5136,16 +5138,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summery!$D$12:$D$18</c:f>
+              <c:f>Summery!$D$12:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.200658928571428</c:v>
                 </c:pt>
@@ -5166,6 +5171,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.36276552579365001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.378387549603174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5212,10 +5220,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summery!$A$12:$A$18</c:f>
+              <c:f>Summery!$A$12:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5236,16 +5244,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summery!$B$12:$B$18</c:f>
+              <c:f>Summery!$B$12:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5265,6 +5276,9 @@
                   <c:v>0.36580838293650703</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.39433809523809499</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.39433809523809499</c:v>
                 </c:pt>
               </c:numCache>
@@ -5369,11 +5383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406353472"/>
-        <c:axId val="406351512"/>
+        <c:axId val="337309848"/>
+        <c:axId val="337311024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406353472"/>
+        <c:axId val="337309848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -5493,12 +5507,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406351512"/>
+        <c:crossAx val="337311024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406351512"/>
+        <c:axId val="337311024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -5612,7 +5626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406353472"/>
+        <c:crossAx val="337309848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14511,11 +14525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406354256"/>
-        <c:axId val="336584608"/>
+        <c:axId val="337304360"/>
+        <c:axId val="337304752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406354256"/>
+        <c:axId val="337304360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -14630,12 +14644,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336584608"/>
+        <c:crossAx val="337304752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336584608"/>
+        <c:axId val="337304752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -14754,7 +14768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406354256"/>
+        <c:crossAx val="337304360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16016,1475 +16030,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summery"/>
-      <sheetName val="Uniform Layer"/>
-      <sheetName val="Uniform Patch"/>
-      <sheetName val="Max Granularity"/>
-      <sheetName val="Uniform Filters"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Base Line:</v>
-          </cell>
-          <cell r="C5">
-            <v>62.6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>0.249</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Max Granularity</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Uniform Patch</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Uniform Filters</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Uniform Layer</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="2">
-          <cell r="B2">
-            <v>28.2</v>
-          </cell>
-          <cell r="E2">
-            <v>0.48893024553571401</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>26.2</v>
-          </cell>
-          <cell r="E3">
-            <v>0.48917159598214199</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>28.8</v>
-          </cell>
-          <cell r="E4">
-            <v>0.48892438616071399</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>29.4</v>
-          </cell>
-          <cell r="E5">
-            <v>0.485356863839285</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>26.3</v>
-          </cell>
-          <cell r="E6">
-            <v>0.48567103794642802</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>34.1</v>
-          </cell>
-          <cell r="E7">
-            <v>0.45387630208333302</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>36.5</v>
-          </cell>
-          <cell r="E8">
-            <v>0.45271335565476101</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>44</v>
-          </cell>
-          <cell r="E9">
-            <v>0.36898577008928501</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>44</v>
-          </cell>
-          <cell r="E10">
-            <v>0.36474218749999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>48.6</v>
-          </cell>
-          <cell r="E11">
-            <v>0.34853069196428499</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>51.3</v>
-          </cell>
-          <cell r="E12">
-            <v>0.34703069196428499</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>49.4</v>
-          </cell>
-          <cell r="E13">
-            <v>0.34452901785714202</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>49.4</v>
-          </cell>
-          <cell r="E14">
-            <v>0.34330989583333299</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>51.8</v>
-          </cell>
-          <cell r="E15">
-            <v>0.343014322916666</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>51.1</v>
-          </cell>
-          <cell r="E16">
-            <v>0.34244996279761902</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>52.4</v>
-          </cell>
-          <cell r="E17">
-            <v>0.34315978422618998</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>53.7</v>
-          </cell>
-          <cell r="E18">
-            <v>0.34254566592261898</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>51.9</v>
-          </cell>
-          <cell r="E19">
-            <v>0.34197042410714201</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>53.5</v>
-          </cell>
-          <cell r="E20">
-            <v>0.27534951636904698</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>55.2</v>
-          </cell>
-          <cell r="E21">
-            <v>0.27463792782738</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>57.4</v>
-          </cell>
-          <cell r="E22">
-            <v>0.27452743675595198</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>57.3</v>
-          </cell>
-          <cell r="E23">
-            <v>0.27354361979166603</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>59.1</v>
-          </cell>
-          <cell r="E24">
-            <v>0.271560081845238</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>58.7</v>
-          </cell>
-          <cell r="E25">
-            <v>0.27163532366071402</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>58</v>
-          </cell>
-          <cell r="E26">
-            <v>0.27118666294642801</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>59.6</v>
-          </cell>
-          <cell r="E27">
-            <v>0.271245535714285</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>57</v>
-          </cell>
-          <cell r="E28">
-            <v>0.27076329985119002</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>61.8</v>
-          </cell>
-          <cell r="E29">
-            <v>0.26834123883928501</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>60.4</v>
-          </cell>
-          <cell r="E30">
-            <v>0.26763076636904698</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>58.7</v>
-          </cell>
-          <cell r="E31">
-            <v>0.26785286458333302</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>59.1</v>
-          </cell>
-          <cell r="E32">
-            <v>0.267226283482142</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>58.9</v>
-          </cell>
-          <cell r="E33">
-            <v>0.26727241443452299</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>60.4</v>
-          </cell>
-          <cell r="E34">
-            <v>0.26658900669642799</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>59.4</v>
-          </cell>
-          <cell r="E35">
-            <v>0.265750837053571</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>62.5</v>
-          </cell>
-          <cell r="E36">
-            <v>0.25066666666666598</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>62</v>
-          </cell>
-          <cell r="E37">
-            <v>0.250447730654761</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>63.5</v>
-          </cell>
-          <cell r="E38">
-            <v>0.24921279761904699</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>62.6</v>
-          </cell>
-          <cell r="E39">
-            <v>0.24900223214285699</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>62.6</v>
-          </cell>
-          <cell r="E40">
-            <v>0.24859877232142799</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>63.4</v>
-          </cell>
-          <cell r="E41">
-            <v>0.24895386904761899</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>67</v>
-          </cell>
-          <cell r="E42">
-            <v>0.23619828869047599</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>66.2</v>
-          </cell>
-          <cell r="E43">
-            <v>0.22968284970238001</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>69.7</v>
-          </cell>
-          <cell r="E44">
-            <v>0.18498642113095201</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>70.400000000000006</v>
-          </cell>
-          <cell r="E45">
-            <v>8.9549665178571394E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>75.8</v>
-          </cell>
-          <cell r="E46">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="B2">
-            <v>27.8</v>
-          </cell>
-          <cell r="E2">
-            <v>0.41102362351190402</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>29.7</v>
-          </cell>
-          <cell r="E3">
-            <v>0.40721186755952299</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>34.9</v>
-          </cell>
-          <cell r="E4">
-            <v>0.40094494047619</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>34.1</v>
-          </cell>
-          <cell r="E5">
-            <v>0.40002901785714201</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>38.4</v>
-          </cell>
-          <cell r="E6">
-            <v>0.39608789062499999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>39.6</v>
-          </cell>
-          <cell r="E7">
-            <v>0.389939546130952</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>41.4</v>
-          </cell>
-          <cell r="E8">
-            <v>0.38565420386904697</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>43.2</v>
-          </cell>
-          <cell r="E9">
-            <v>0.38216462053571398</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>40.9</v>
-          </cell>
-          <cell r="E10">
-            <v>0.37790857514880899</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>41.9</v>
-          </cell>
-          <cell r="E11">
-            <v>0.37199869791666601</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>44.2</v>
-          </cell>
-          <cell r="E12">
-            <v>0.37067020089285702</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>42.9</v>
-          </cell>
-          <cell r="E13">
-            <v>0.36996819196428499</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>43.8</v>
-          </cell>
-          <cell r="E14">
-            <v>0.36904129464285701</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>45.2</v>
-          </cell>
-          <cell r="E15">
-            <v>0.36727334449404703</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>44.5</v>
-          </cell>
-          <cell r="E16">
-            <v>0.36489239211309499</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>46.9</v>
-          </cell>
-          <cell r="E17">
-            <v>0.36245563616071402</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>41</v>
-          </cell>
-          <cell r="E18">
-            <v>0.30914741443452298</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>45</v>
-          </cell>
-          <cell r="E19">
-            <v>0.305333519345238</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>46.8</v>
-          </cell>
-          <cell r="E20">
-            <v>0.30267912946428499</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>47</v>
-          </cell>
-          <cell r="E21">
-            <v>0.30007059151785698</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>47.1</v>
-          </cell>
-          <cell r="E22">
-            <v>0.29874479166666601</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>44.5</v>
-          </cell>
-          <cell r="E23">
-            <v>0.289525111607142</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>52.1</v>
-          </cell>
-          <cell r="E24">
-            <v>0.28394763764880898</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>55.2</v>
-          </cell>
-          <cell r="E25">
-            <v>0.27975037202380898</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>67</v>
-          </cell>
-          <cell r="E26">
-            <v>0.26869038318452299</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>67.400000000000006</v>
-          </cell>
-          <cell r="E27">
-            <v>0.26615011160714203</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>67.7</v>
-          </cell>
-          <cell r="E28">
-            <v>0.26522321428571399</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>63.2</v>
-          </cell>
-          <cell r="E29">
-            <v>0.24161755952380901</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>65.900000000000006</v>
-          </cell>
-          <cell r="E30">
-            <v>0.239281808035714</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>69.7</v>
-          </cell>
-          <cell r="E31">
-            <v>0.23781091889880901</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>70.900000000000006</v>
-          </cell>
-          <cell r="E32">
-            <v>0.23535398065476101</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>72.3</v>
-          </cell>
-          <cell r="E33">
-            <v>0.234107886904761</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>73.8</v>
-          </cell>
-          <cell r="E34">
-            <v>0.23214639136904699</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>72.7</v>
-          </cell>
-          <cell r="E35">
-            <v>0.22994103422619</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>72.400000000000006</v>
-          </cell>
-          <cell r="E36">
-            <v>0.22880059523809501</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>72.400000000000006</v>
-          </cell>
-          <cell r="E37">
-            <v>0.22807180059523799</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>72.3</v>
-          </cell>
-          <cell r="E38">
-            <v>0.226488467261904</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>72.400000000000006</v>
-          </cell>
-          <cell r="E39">
-            <v>0.22081249999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>74</v>
-          </cell>
-          <cell r="E40">
-            <v>0.18023958333333301</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>74.8</v>
-          </cell>
-          <cell r="E41">
-            <v>9.5908110119047596E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1">
-        <row r="2">
-          <cell r="B2">
-            <v>28.4</v>
-          </cell>
-          <cell r="E2">
-            <v>0.40970870535714199</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>29.6</v>
-          </cell>
-          <cell r="E3">
-            <v>0.40818759300595198</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>35.299999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>0.399213634672619</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>39.799999999999997</v>
-          </cell>
-          <cell r="E5">
-            <v>0.39797572544642801</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>39.6</v>
-          </cell>
-          <cell r="E6">
-            <v>0.395206101190476</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>41.1</v>
-          </cell>
-          <cell r="E7">
-            <v>0.39316276041666598</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>41.1</v>
-          </cell>
-          <cell r="E8">
-            <v>0.39097767857142801</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>41.4</v>
-          </cell>
-          <cell r="E9">
-            <v>0.38802539062500002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>42.3</v>
-          </cell>
-          <cell r="E10">
-            <v>0.37679827008928501</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>48.2</v>
-          </cell>
-          <cell r="E11">
-            <v>0.37293377976190401</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>51.7</v>
-          </cell>
-          <cell r="E12">
-            <v>0.36699414062500002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>59.3</v>
-          </cell>
-          <cell r="E13">
-            <v>0.36149841889880902</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>59.8</v>
-          </cell>
-          <cell r="E14">
-            <v>0.35533919270833297</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>62.1</v>
-          </cell>
-          <cell r="E15">
-            <v>0.35032356770833301</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>62.4</v>
-          </cell>
-          <cell r="E16">
-            <v>0.34456845238095202</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>62.8</v>
-          </cell>
-          <cell r="E17">
-            <v>0.33309272693452302</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>63.8</v>
-          </cell>
-          <cell r="E18">
-            <v>0.32818480282738</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>64</v>
-          </cell>
-          <cell r="E19">
-            <v>0.326529017857142</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>58.5</v>
-          </cell>
-          <cell r="E20">
-            <v>0.28267336309523799</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>61.8</v>
-          </cell>
-          <cell r="E21">
-            <v>0.27750009300595202</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>64.900000000000006</v>
-          </cell>
-          <cell r="E22">
-            <v>0.27481956845238098</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>65.2</v>
-          </cell>
-          <cell r="E23">
-            <v>0.27191266741071402</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>66.8</v>
-          </cell>
-          <cell r="E24">
-            <v>0.26904278273809501</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>66.2</v>
-          </cell>
-          <cell r="E25">
-            <v>0.26731463913690401</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>67.2</v>
-          </cell>
-          <cell r="E26">
-            <v>0.266052455357142</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>66.2</v>
-          </cell>
-          <cell r="E27">
-            <v>0.26468229166666601</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>66.599999999999994</v>
-          </cell>
-          <cell r="E28">
-            <v>0.26339183407737998</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>67</v>
-          </cell>
-          <cell r="E29">
-            <v>0.26275418526785699</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>67.5</v>
-          </cell>
-          <cell r="E30">
-            <v>0.26000883556547599</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>63.6</v>
-          </cell>
-          <cell r="E31">
-            <v>0.23599460565476099</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>66.099999999999994</v>
-          </cell>
-          <cell r="E32">
-            <v>0.23438430059523799</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>67.400000000000006</v>
-          </cell>
-          <cell r="E33">
-            <v>0.232853050595238</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>72.7</v>
-          </cell>
-          <cell r="E34">
-            <v>0.23094568452380901</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>71.7</v>
-          </cell>
-          <cell r="E35">
-            <v>0.22969066220237999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>72.099999999999994</v>
-          </cell>
-          <cell r="E36">
-            <v>0.22863541666666601</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>73.900000000000006</v>
-          </cell>
-          <cell r="E37">
-            <v>0.227014508928571</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>73.599999999999994</v>
-          </cell>
-          <cell r="E38">
-            <v>0.22597860863095201</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>74</v>
-          </cell>
-          <cell r="E39">
-            <v>0.22488913690476101</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>73.8</v>
-          </cell>
-          <cell r="E40">
-            <v>0.224262276785714</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>73.8</v>
-          </cell>
-          <cell r="E41">
-            <v>0.222821428571428</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>73.8</v>
-          </cell>
-          <cell r="E42">
-            <v>0.21707477678571399</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>74.400000000000006</v>
-          </cell>
-          <cell r="E43">
-            <v>0.17598084077380899</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>75.099999999999994</v>
-          </cell>
-          <cell r="E44">
-            <v>9.29094122023809E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1">
-        <row r="2">
-          <cell r="B2">
-            <v>33.4</v>
-          </cell>
-          <cell r="E2">
-            <v>0.41024144345238001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>35.700000000000003</v>
-          </cell>
-          <cell r="E3">
-            <v>0.40796995907737998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>34.799999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>0.40478887648809497</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>31.9</v>
-          </cell>
-          <cell r="E5">
-            <v>0.404586867559523</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>41</v>
-          </cell>
-          <cell r="E6">
-            <v>0.372921037946428</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>42</v>
-          </cell>
-          <cell r="E7">
-            <v>0.37236281622023798</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>42</v>
-          </cell>
-          <cell r="E8">
-            <v>0.37236281622023798</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>42.4</v>
-          </cell>
-          <cell r="E9">
-            <v>0.368317522321428</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>43.1</v>
-          </cell>
-          <cell r="E10">
-            <v>0.368674665178571</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>42.9</v>
-          </cell>
-          <cell r="E11">
-            <v>0.364460379464285</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>47.1</v>
-          </cell>
-          <cell r="E12">
-            <v>0.34821456473214202</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>47.1</v>
-          </cell>
-          <cell r="E13">
-            <v>0.34821456473214202</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>52.1</v>
-          </cell>
-          <cell r="E14">
-            <v>0.34673074776785701</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>49.4</v>
-          </cell>
-          <cell r="E15">
-            <v>0.34433807663690402</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>49.5</v>
-          </cell>
-          <cell r="E16">
-            <v>0.342974981398809</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>52.1</v>
-          </cell>
-          <cell r="E17">
-            <v>0.34277334449404701</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>51.9</v>
-          </cell>
-          <cell r="E18">
-            <v>0.34219038318452299</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>52.2</v>
-          </cell>
-          <cell r="E19">
-            <v>0.34252483258928501</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>53.8</v>
-          </cell>
-          <cell r="E20">
-            <v>0.34240466889880899</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>52.5</v>
-          </cell>
-          <cell r="E21">
-            <v>0.33905217633928503</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>53.7</v>
-          </cell>
-          <cell r="E22">
-            <v>0.27663327752976102</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>57.7</v>
-          </cell>
-          <cell r="E23">
-            <v>0.27451729910714201</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>58.4</v>
-          </cell>
-          <cell r="E24">
-            <v>0.27366610863095198</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>58.6</v>
-          </cell>
-          <cell r="E25">
-            <v>0.27236086309523799</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>59.4</v>
-          </cell>
-          <cell r="E26">
-            <v>0.27116899181547599</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>60.7</v>
-          </cell>
-          <cell r="E27">
-            <v>0.27078915550595201</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>60.8</v>
-          </cell>
-          <cell r="E28">
-            <v>0.27054817708333301</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>59.9</v>
-          </cell>
-          <cell r="E29">
-            <v>0.27116592261904698</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>59.8</v>
-          </cell>
-          <cell r="E30">
-            <v>0.26989006696428502</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>58.4</v>
-          </cell>
-          <cell r="E31">
-            <v>0.26888430059523799</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>59.5</v>
-          </cell>
-          <cell r="E32">
-            <v>0.26907459077380902</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>57.3</v>
-          </cell>
-          <cell r="E33">
-            <v>0.26736690848214201</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>61.1</v>
-          </cell>
-          <cell r="E34">
-            <v>0.26705868675595201</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>59.1</v>
-          </cell>
-          <cell r="E35">
-            <v>0.26719308035714201</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>60</v>
-          </cell>
-          <cell r="E36">
-            <v>0.26643898809523803</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>61.3</v>
-          </cell>
-          <cell r="E37">
-            <v>0.26563550967261901</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>62.1</v>
-          </cell>
-          <cell r="E38">
-            <v>0.25047042410714199</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>62.1</v>
-          </cell>
-          <cell r="E39">
-            <v>0.25047042410714199</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>63.2</v>
-          </cell>
-          <cell r="E40">
-            <v>0.25025353422619001</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>63.4</v>
-          </cell>
-          <cell r="E41">
-            <v>0.24890680803571399</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>63.9</v>
-          </cell>
-          <cell r="E42">
-            <v>0.248712611607142</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>62.7</v>
-          </cell>
-          <cell r="E43">
-            <v>0.24833556547619001</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>62.7</v>
-          </cell>
-          <cell r="E44">
-            <v>0.24797581845238001</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>62.9</v>
-          </cell>
-          <cell r="E45">
-            <v>0.248368303571428</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>66.099999999999994</v>
-          </cell>
-          <cell r="E46">
-            <v>0.23562704613095201</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>66.5</v>
-          </cell>
-          <cell r="E47">
-            <v>0.22910026041666601</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>72.3</v>
-          </cell>
-          <cell r="E48">
-            <v>0.184276041666666</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>72.5</v>
-          </cell>
-          <cell r="E49">
-            <v>8.9174107142857104E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>75.8</v>
-          </cell>
-          <cell r="E50">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17748,10 +16293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17973,6 +16518,23 @@
         <v>0.36276552579365001</v>
       </c>
       <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f t="array" ref="B19">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A19),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>0.39433809523809499</v>
+      </c>
+      <c r="C19">
+        <f t="array" ref="C19">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A19),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0.344863343253968</v>
+      </c>
+      <c r="D19">
+        <f t="array" ref="D19">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A19),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.378387549603174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Results/AlexNet_CIFAR10_PS3.xlsx
+++ b/doc/Results/AlexNet_CIFAR10_PS3.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="3" r:id="rId1"/>
-    <sheet name="Max Granularity" sheetId="6" r:id="rId2"/>
-    <sheet name="Uniform Layer" sheetId="2" r:id="rId3"/>
-    <sheet name="Uniform Patch" sheetId="4" r:id="rId4"/>
-    <sheet name="Uniform Filters" sheetId="5" r:id="rId5"/>
+    <sheet name="Retraining" sheetId="7" r:id="rId2"/>
+    <sheet name="Max Granularity" sheetId="6" r:id="rId3"/>
+    <sheet name="Uniform Layer" sheetId="2" r:id="rId4"/>
+    <sheet name="Uniform Patch" sheetId="4" r:id="rId5"/>
+    <sheet name="Uniform Filters" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1873">
   <si>
     <t>option</t>
   </si>
@@ -5623,6 +5624,30 @@
   </si>
   <si>
     <t>Max Granularity</t>
+  </si>
+  <si>
+    <t>Operations Saved - Before</t>
+  </si>
+  <si>
+    <t>Accuracy - Before</t>
+  </si>
+  <si>
+    <t>Operations Saved - After</t>
+  </si>
+  <si>
+    <t>Accuracy - After</t>
+  </si>
+  <si>
+    <t>Original Max Accuracy Loss</t>
+  </si>
+  <si>
+    <t>Operations Saved Diff : After - Before</t>
+  </si>
+  <si>
+    <t>Accuracy Diff : After - Before</t>
+  </si>
+  <si>
+    <t>Real Accuracy loss after retraining</t>
   </si>
 </sst>
 </file>
@@ -5765,7 +5790,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5945,6 +5970,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -6106,13 +6137,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6792,11 +6825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348150040"/>
-        <c:axId val="348152392"/>
+        <c:axId val="338773120"/>
+        <c:axId val="338774688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348150040"/>
+        <c:axId val="338773120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -6916,12 +6949,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348152392"/>
+        <c:crossAx val="338774688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348152392"/>
+        <c:axId val="338774688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -7035,7 +7068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348150040"/>
+        <c:crossAx val="338773120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18560,11 +18593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348153176"/>
-        <c:axId val="348153568"/>
+        <c:axId val="338774296"/>
+        <c:axId val="338775472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348153176"/>
+        <c:axId val="338774296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -18679,12 +18712,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348153568"/>
+        <c:crossAx val="338775472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348153568"/>
+        <c:axId val="338775472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -18803,7 +18836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348153176"/>
+        <c:crossAx val="338774296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20330,8 +20363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20628,6 +20661,1492 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="5">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="5">
+        <v>75.8</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="5">
+        <v>61.7</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.34021000000000001</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <f>B3-C5</f>
+        <v>14.099999999999994</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>1866</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="array" ref="B12">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A12),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="array" ref="C12">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A12),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="array" ref="D12">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A12),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="array" ref="E12">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A12),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.27151269841269798</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <f>$B$3</f>
+        <v>75.8</v>
+      </c>
+      <c r="J12" s="7">
+        <f>$B$3</f>
+        <v>75.8</v>
+      </c>
+      <c r="K12" s="7">
+        <f>B3</f>
+        <v>75.8</v>
+      </c>
+      <c r="L12" s="7">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="array" ref="B13">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A13),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="array" ref="C13">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A13),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="array" ref="D13">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A13),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.200658928571428</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="array" ref="E13">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A13),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.279476240079365</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" ref="I13:J14" si="0">$B$3</f>
+        <v>75.8</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>75.8</v>
+      </c>
+      <c r="K13" s="7">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L13" s="7">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="array" ref="B14">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A14),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="array" ref="C14">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A14),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="array" ref="D14">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A14),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.27016726190476098</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="array" ref="E14">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A14),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.28869469246031698</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>75.8</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="0"/>
+        <v>75.8</v>
+      </c>
+      <c r="K14" s="7">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="L14" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="array" ref="B15">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A15),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>6.6727976190476102E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="array" ref="C15">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A15),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0.29826200396825397</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="array" ref="D15">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A15),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.29644702380952298</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="array" ref="E15">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A15),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.31245406746031701</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="K15" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="L15" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="array" ref="B16">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A16),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>6.6727976190476102E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="array" ref="C16">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A16),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0.30198864087301502</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="array" ref="D16">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A16),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.303870238095238</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="array" ref="E16">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A16),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.31245406746031701</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>72.3</v>
+      </c>
+      <c r="K16" s="7">
+        <v>72.5</v>
+      </c>
+      <c r="L16" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="array" ref="B17">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A17),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>0.21628928571428499</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="array" ref="C17">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A17),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0.31000729166666602</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="array" ref="D17">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A17),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.33521542658730102</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="array" ref="E17">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A17),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.31245406746031701</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>71.8</v>
+      </c>
+      <c r="J17" s="7">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7">
+        <v>71.3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="array" ref="B18">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A18),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>0.36580838293650703</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="array" ref="C18">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A18),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0.33163308531746</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="array" ref="D18">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A18),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.35941413690476098</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="array" ref="E18">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A18),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.31245406746031701</v>
+      </c>
+      <c r="H18" s="6">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>65.8</v>
+      </c>
+      <c r="J18" s="7">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="K18" s="7">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="L18" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="array" ref="B19">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A19),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>0.39433809523809499</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="array" ref="C19">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A19),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0.341020386904761</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="array" ref="D19">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A19),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.36276552579365001</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="array" ref="E19">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A19),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.32828621031746003</v>
+      </c>
+      <c r="H19" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>61.7</v>
+      </c>
+      <c r="J19" s="7">
+        <v>62.1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="L19" s="7">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="array" ref="B20">MAX(IF('Uniform Layer'!$B$2:$B$9391&gt;(75.79 - $A20),'Uniform Layer'!$E$2:$E$9391))</f>
+        <v>0.39433809523809499</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="array" ref="C20">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;(75.79 - $A20),'Uniform Patch'!$E$2:$E$9391))</f>
+        <v>0.344863343253968</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="array" ref="D20">MAX(IF('Uniform Filters'!$B$2:$B$9391&gt;(75.79 - $A20),'Uniform Filters'!$E$2:$E$9391))</f>
+        <v>0.378387549603174</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="array" ref="E20">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;(75.79 - $A20),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.32973288690476099</v>
+      </c>
+      <c r="H20" s="6">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7">
+        <v>61.7</v>
+      </c>
+      <c r="J20" s="6">
+        <v>61</v>
+      </c>
+      <c r="K20" s="6">
+        <v>60.8</v>
+      </c>
+      <c r="L20" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.27162999999999998</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <f>$B$3</f>
+        <v>75.8</v>
+      </c>
+      <c r="J25" s="7">
+        <f>$B$3</f>
+        <v>75.8</v>
+      </c>
+      <c r="K25" s="7">
+        <f>B3</f>
+        <v>75.8</v>
+      </c>
+      <c r="L25" s="7">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.20759</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.28537000000000001</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:J27" si="1">$B$3</f>
+        <v>75.8</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+      <c r="K26" s="7">
+        <v>75.3</v>
+      </c>
+      <c r="L26" s="7">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.29916999999999999</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+      <c r="K27" s="7">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="L27" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7">
+        <v>7.8530000000000003E-2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.33138000000000001</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.30155999999999999</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.32051000000000002</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>74</v>
+      </c>
+      <c r="J28" s="7">
+        <v>74.8</v>
+      </c>
+      <c r="K28" s="7">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="L28" s="7">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="B29" s="7">
+        <v>7.8530000000000003E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.33574999999999999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.31283</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.32051000000000002</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>74</v>
+      </c>
+      <c r="J29" s="7">
+        <v>73.7</v>
+      </c>
+      <c r="K29" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L29" s="7">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.22758999999999999</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.34247</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.34955999999999998</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.32051000000000002</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>74.7</v>
+      </c>
+      <c r="K30" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="L30" s="7">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>10</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.38372000000000001</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.35276000000000002</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.32051000000000002</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="J31" s="7">
+        <v>75.2</v>
+      </c>
+      <c r="K31" s="7">
+        <v>74.5</v>
+      </c>
+      <c r="L31" s="7">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.41718</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.38444</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.39218999999999998</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.35358000000000001</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="J32" s="7">
+        <v>75.3</v>
+      </c>
+      <c r="K32" s="7">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="L32" s="7">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>15</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.41718</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.39248</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.40565000000000001</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.35715000000000002</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6">
+        <v>15</v>
+      </c>
+      <c r="I33" s="7">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="J33" s="6">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="K33" s="6">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="L33" s="7">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>0</v>
+      </c>
+      <c r="B38" s="7">
+        <f t="shared" ref="B38:C38" si="2">B25-B12</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" ref="C38" si="3">C25-C12</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <f>D25-D12</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <f>E25-E12</f>
+        <v>1.1730158730199891E-4</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" ref="I38:J38" si="4">I25-I12</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" ref="J38" si="5">J25-J12</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <f>K25-K12</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f>L25-L12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>1</v>
+      </c>
+      <c r="B39" s="7">
+        <f t="shared" ref="B39:C39" si="6">B26-B13</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" ref="D39:E46" si="7">D26-D13</f>
+        <v>6.9310714285719943E-3</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="7"/>
+        <v>5.8937599206350111E-3</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" ref="I39:J39" si="8">I26-I13</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" ref="K39:K46" si="9">K26-K13</f>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" ref="L39:L46" si="10">L26-L13</f>
+        <v>2.3999999999999915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>2</v>
+      </c>
+      <c r="B40" s="7">
+        <f t="shared" ref="B40:C40" si="11">B27-B14</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="7"/>
+        <v>2.6532738095239039E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="7"/>
+        <v>1.047530753968301E-2</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" ref="I40:J44" si="12">I27-I14</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>3</v>
+      </c>
+      <c r="B41" s="7">
+        <f t="shared" ref="B41" si="13">B28-B15</f>
+        <v>1.1802023809523901E-2</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" ref="C41" si="14">C28-C15</f>
+        <v>3.3117996031746033E-2</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="7"/>
+        <v>5.1129761904770143E-3</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="7"/>
+        <v>8.0559325396830084E-3</v>
+      </c>
+      <c r="H41" s="6">
+        <v>3</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" ref="I41:J41" si="15">I28-I15</f>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="12"/>
+        <v>1.8999999999999915</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="10"/>
+        <v>2.9000000000000057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="B42" s="7">
+        <f t="shared" ref="B42" si="16">B29-B16</f>
+        <v>1.1802023809523901E-2</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" ref="C42" si="17">C29-C16</f>
+        <v>3.3761359126984969E-2</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="7"/>
+        <v>8.9597619047619981E-3</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="7"/>
+        <v>8.0559325396830084E-3</v>
+      </c>
+      <c r="H42" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" ref="I42:J42" si="18">I29-I16</f>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="18"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="9"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="10"/>
+        <v>2.9000000000000057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7">
+        <f t="shared" ref="B43" si="19">B30-B17</f>
+        <v>1.1300714285714997E-2</v>
+      </c>
+      <c r="C43" s="7">
+        <f t="shared" ref="C43" si="20">C30-C17</f>
+        <v>3.2462708333333978E-2</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="7"/>
+        <v>1.4344573412698958E-2</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="7"/>
+        <v>8.0559325396830084E-3</v>
+      </c>
+      <c r="H43" s="6">
+        <v>5</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" ref="I43:J43" si="21">I30-I17</f>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="21"/>
+        <v>3.7000000000000028</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="L43" s="7">
+        <f t="shared" si="10"/>
+        <v>2.9000000000000057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>10</v>
+      </c>
+      <c r="B44" s="7">
+        <f t="shared" ref="B44" si="22">B31-B18</f>
+        <v>1.7911617063492979E-2</v>
+      </c>
+      <c r="C44" s="7">
+        <f t="shared" ref="C44" si="23">C31-C18</f>
+        <v>2.1126914682540021E-2</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="7"/>
+        <v>2.5885863095238992E-2</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="7"/>
+        <v>8.0559325396830084E-3</v>
+      </c>
+      <c r="H44" s="6">
+        <v>10</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" ref="I44:J44" si="24">I31-I18</f>
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="12"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" si="9"/>
+        <v>8.5999999999999943</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="10"/>
+        <v>2.9000000000000057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="B45" s="7">
+        <f t="shared" ref="B45" si="25">B32-B19</f>
+        <v>2.2841904761905008E-2</v>
+      </c>
+      <c r="C45" s="7">
+        <f t="shared" ref="C45" si="26">C32-C19</f>
+        <v>4.3419613095239007E-2</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="7"/>
+        <v>2.9424474206349971E-2</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="7"/>
+        <v>2.529378968253998E-2</v>
+      </c>
+      <c r="H45" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" ref="I45:J45" si="27">I32-I19</f>
+        <v>10.200000000000003</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="27"/>
+        <v>13.199999999999996</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="9"/>
+        <v>6.6999999999999886</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="10"/>
+        <v>14.599999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>15</v>
+      </c>
+      <c r="B46" s="7">
+        <f t="shared" ref="B46" si="28">B33-B20</f>
+        <v>2.2841904761905008E-2</v>
+      </c>
+      <c r="C46" s="7">
+        <f t="shared" ref="C46" si="29">C33-C20</f>
+        <v>4.7616656746031993E-2</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="7"/>
+        <v>2.726245039682601E-2</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="7"/>
+        <v>2.7417113095239032E-2</v>
+      </c>
+      <c r="H46" s="6">
+        <v>15</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" ref="I46:J46" si="30">I33-I20</f>
+        <v>10.200000000000003</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="30"/>
+        <v>14.599999999999994</v>
+      </c>
+      <c r="K46" s="7">
+        <f t="shared" si="9"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" si="10"/>
+        <v>14.599999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H49" s="6" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H50" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" ref="I51:J51" si="31">-I25+$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <f>-K25+$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <f>-L25+$B$3</f>
+        <v>-0.60000000000000853</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" ref="I52" si="32">-I26+$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" ref="J52" si="33">-J26+$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <f t="shared" ref="K52:L59" si="34">-K26+$B$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="7">
+        <f t="shared" si="34"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="6">
+        <v>2</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" ref="I53" si="35">-I27+$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" ref="J53" si="36">-J27+$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.60000000000000853</v>
+      </c>
+      <c r="L53" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H54" s="6">
+        <v>3</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" ref="I54" si="37">-I28+$B$3</f>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" ref="J54" si="38">-J28+$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="K54" s="7">
+        <f t="shared" si="34"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="L54" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.10000000000000853</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H55" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" ref="I55" si="39">-I29+$B$3</f>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" ref="J55" si="40">-J29+$B$3</f>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="K55" s="7">
+        <f t="shared" si="34"/>
+        <v>1.3999999999999915</v>
+      </c>
+      <c r="L55" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.10000000000000853</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="6">
+        <v>5</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" ref="I56" si="41">-I30+$B$3</f>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" ref="J56" si="42">-J30+$B$3</f>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.10000000000000853</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H57" s="6">
+        <v>10</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" ref="I57" si="43">-I31+$B$3</f>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" ref="J57" si="44">-J31+$B$3</f>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="34"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="L57" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.10000000000000853</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H58" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" ref="I58" si="45">-I32+$B$3</f>
+        <v>3.8999999999999915</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" ref="J58" si="46">-J32+$B$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="7">
+        <f t="shared" si="34"/>
+        <v>4.2000000000000028</v>
+      </c>
+      <c r="L58" s="7">
+        <f t="shared" si="34"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H59" s="6">
+        <v>15</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" ref="I59" si="47">-I33+$B$3</f>
+        <v>3.8999999999999915</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" ref="J59" si="48">-J33+$B$3</f>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="K59" s="7">
+        <f t="shared" si="34"/>
+        <v>4.2000000000000028</v>
+      </c>
+      <c r="L59" s="7">
+        <f t="shared" si="34"/>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E431"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
@@ -27968,7 +29487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G495"/>
   <sheetViews>
@@ -36402,7 +37921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E460"/>
   <sheetViews>
@@ -44240,7 +45759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E473"/>
   <sheetViews>
